--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,17 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +90,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -139,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,34 +157,8 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,10 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -498,421 +462,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43246</v>
+        <v>43400</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>5367</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>6481</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="4">
-        <v>43281</v>
+        <v>43471</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>5554</v>
+        <v>7147</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">C3-C2</f>
-        <v>187</v>
+        <f t="shared" ref="D3:D5" si="0">C3-C2</f>
+        <v>666</v>
       </c>
       <c r="E3" s="6">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
-        <v>802.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F5" si="1">D3*E3</f>
+        <v>2997</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2997</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="4">
-        <v>43309</v>
+        <v>43527</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5998</v>
+        <v>7804</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>657</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43400</v>
+        <v>3002.4900000000002</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3002.49</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A5" s="12">
+        <v>43555</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>6481</v>
+        <v>8023</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>483</v>
+        <v>219</v>
       </c>
       <c r="E5" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>2173.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000.83</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1000.83</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43471</v>
+        <v>43584</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>7147</v>
+        <v>8460</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>666</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
+        <f>C6-C5</f>
+        <v>437</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>43527</v>
+        <f>D6*E6</f>
+        <v>1997.0900000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1997.09</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>43626</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>7804</v>
+        <v>8898</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>657</v>
-      </c>
-      <c r="E7" s="13">
+        <f>C7-C6</f>
+        <v>438</v>
+      </c>
+      <c r="E7" s="8">
         <v>4.57</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>3002.4900000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43555</v>
+        <f>D7*E7</f>
+        <v>2001.66</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2001.66</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>43681</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>8023</v>
+        <v>9120</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="E8" s="13">
-        <v>4.57</v>
+        <f>C8-C7</f>
+        <v>222</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1000.83</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>D8*E8</f>
+        <v>996.78000000000009</v>
+      </c>
+      <c r="G8" s="11">
+        <v>996.78</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
-        <v>43584</v>
+        <v>43681</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>8460</v>
+        <v>9454</v>
       </c>
       <c r="D9" s="3">
         <f>C9-C8</f>
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="E9" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
-        <v>1997.0900000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1499.66</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1499.66</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
-        <v>43626</v>
+        <v>43713</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>8898</v>
+        <v>10123</v>
       </c>
       <c r="D10" s="3">
         <f>C10-C9</f>
-        <v>438</v>
+        <v>669</v>
       </c>
       <c r="E10" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
         <f>D10*E10</f>
-        <v>2001.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3003.81</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3003.81</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
-        <v>43626</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43681</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9120</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>222</v>
-      </c>
-      <c r="E12" s="8">
+        <v>43887</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10568</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C10</f>
+        <v>445</v>
+      </c>
+      <c r="E11" s="8">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>996.78000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43681</v>
-      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1998.05</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G3:G11)</f>
+        <v>18497.37</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H3:H11)</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43681</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9454</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>334</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>1499.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43713</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10123</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
-        <v>669</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>3003.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43887</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>2.6300000000010186</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -922,12 +821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,12 +835,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -462,17 +464,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -486,7 +488,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -512,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43400</v>
       </c>
@@ -528,7 +530,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43471</v>
       </c>
@@ -556,7 +558,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43527</v>
       </c>
@@ -584,7 +586,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43555</v>
       </c>
@@ -612,7 +614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43584</v>
       </c>
@@ -623,14 +625,14 @@
         <v>8460</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" ref="D6:D12" si="2">C6-C5</f>
         <v>437</v>
       </c>
       <c r="E6" s="8">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="3">D6*E6</f>
         <v>1997.0900000000001</v>
       </c>
       <c r="G6" s="11">
@@ -640,7 +642,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43626</v>
       </c>
@@ -651,14 +653,14 @@
         <v>8898</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
       <c r="E7" s="8">
         <v>4.57</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="3"/>
         <v>2001.66</v>
       </c>
       <c r="G7" s="11">
@@ -668,7 +670,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43681</v>
       </c>
@@ -679,14 +681,14 @@
         <v>9120</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="3"/>
         <v>996.78000000000009</v>
       </c>
       <c r="G8" s="11">
@@ -696,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43681</v>
       </c>
@@ -707,14 +709,14 @@
         <v>9454</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C8</f>
+        <f t="shared" si="2"/>
         <v>334</v>
       </c>
       <c r="E9" s="8">
         <v>4.49</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>1499.66</v>
       </c>
       <c r="G9" s="11">
@@ -724,7 +726,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43713</v>
       </c>
@@ -735,14 +737,14 @@
         <v>10123</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C9</f>
+        <f t="shared" si="2"/>
         <v>669</v>
       </c>
       <c r="E10" s="8">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>3003.81</v>
       </c>
       <c r="G10" s="11">
@@ -752,7 +754,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43887</v>
       </c>
@@ -763,14 +765,14 @@
         <v>10568</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C10</f>
+        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="E11" s="8">
         <v>4.49</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>1998.0500000000002</v>
       </c>
       <c r="G11" s="11">
@@ -780,37 +782,65 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10791</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12" si="4">D12*E12</f>
+        <v>1001.2700000000001</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G3:G11)</f>
-        <v>18497.37</v>
+        <v>1001.27</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H3:H11)</f>
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM(G3:G12)</f>
+        <v>19498.64</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H3:H12)</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>2.6300000000010186</v>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <f>SUM(H13,-G13)</f>
+        <v>1.3600000000005821</v>
       </c>
     </row>
   </sheetData>
@@ -821,12 +851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,12 +865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12" si="4">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>1001.2700000000001</v>
       </c>
       <c r="G12" s="11">
@@ -811,36 +811,64 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
+      <c r="A13" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11236</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="5">C13-C12</f>
+        <v>445</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>1998.0500000000002</v>
       </c>
       <c r="G13" s="11">
-        <f>SUM(G3:G12)</f>
-        <v>19498.64</v>
+        <v>1998.05</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(H3:H12)</f>
-        <v>19500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G3:G13)</f>
+        <v>21496.69</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H3:H13)</f>
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <f>SUM(H13,-G13)</f>
-        <v>1.3600000000005821</v>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>3.3100000000013097</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,36 +839,64 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
+      <c r="A14" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14193</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="6">C14-C13</f>
+        <v>2957</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14" si="7">D14*E14</f>
+        <v>13927.47</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(G3:G13)</f>
-        <v>21496.69</v>
+        <v>13927.47</v>
       </c>
       <c r="H14" s="11">
-        <f>SUM(H3:H13)</f>
-        <v>21500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SUM(G3:G14)</f>
+        <v>35424.159999999996</v>
+      </c>
+      <c r="H15" s="11">
+        <f>SUM(H3:H14)</f>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>3.3100000000013097</v>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <f>SUM(H15,-G15)</f>
+        <v>-3924.1599999999962</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,57 +846,85 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>14193</v>
+        <v>13359</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ref="D14" si="6">C14-C13</f>
-        <v>2957</v>
+        <v>2123</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ref="F14" si="7">D14*E14</f>
-        <v>13927.47</v>
+        <v>9999.33</v>
       </c>
       <c r="G14" s="11">
-        <v>13927.47</v>
+        <v>9999.33</v>
       </c>
       <c r="H14" s="11">
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="4">
+        <v>44055</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14420</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="8">C15-C14</f>
+        <v>1061</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15" si="9">D15*E15</f>
+        <v>4997.3100000000004</v>
       </c>
       <c r="G15" s="11">
-        <f>SUM(G3:G14)</f>
-        <v>35424.159999999996</v>
+        <v>4997.3100000000004</v>
       </c>
       <c r="H15" s="11">
-        <f>SUM(H3:H14)</f>
-        <v>31500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G3:G15)</f>
+        <v>36493.329999999994</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H3:H15)</f>
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
-        <f>SUM(H15,-G15)</f>
-        <v>-3924.1599999999962</v>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>6.6700000000055297</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,36 +895,64 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+      <c r="A16" s="4">
+        <v>44147</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15483</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="10">C16-C15</f>
+        <v>1063</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16" si="11">D16*E16</f>
+        <v>5006.7299999999996</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM(G3:G15)</f>
-        <v>36493.329999999994</v>
+        <v>5006.7299999999996</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM(H3:H15)</f>
-        <v>36500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11">
+        <f>SUM(G3:G16)</f>
+        <v>41500.06</v>
+      </c>
+      <c r="H17" s="11">
+        <f>SUM(H3:H16)</f>
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
-        <v>6.6700000000055297</v>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <f>SUM(H17,-G17)</f>
+        <v>-5.9999999997671694E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -923,36 +923,64 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
+      <c r="A17" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16544</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C16)</f>
+        <v>1061</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="12">D17*E17</f>
+        <v>4997.3100000000004</v>
       </c>
       <c r="G17" s="11">
-        <f>SUM(G3:G16)</f>
-        <v>41500.06</v>
+        <v>4997.3100000000004</v>
       </c>
       <c r="H17" s="11">
-        <f>SUM(H3:H16)</f>
-        <v>41500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G3:G17)</f>
+        <v>46497.369999999995</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H3:H17)</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
-        <f>SUM(H17,-G17)</f>
-        <v>-5.9999999997671694E-2</v>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>2.6300000000046566</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,36 +951,64 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
+      <c r="A18" s="4">
+        <v>44313</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17605</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C17)</f>
+        <v>1061</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18" si="13">D18*E18</f>
+        <v>4997.3100000000004</v>
       </c>
       <c r="G18" s="11">
-        <f>SUM(G3:G17)</f>
-        <v>46497.369999999995</v>
+        <v>4997.3100000000004</v>
       </c>
       <c r="H18" s="11">
-        <f>SUM(H3:H17)</f>
-        <v>46500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11">
+        <f>SUM(G3:G18)</f>
+        <v>51494.679999999993</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(H3:H18)</f>
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>2.6300000000046566</v>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <f>SUM(H19,-G19)</f>
+        <v>5.3200000000069849</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/133ee.xlsx
+++ b/sputnik/personal/ee/133ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,36 +979,64 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
+      <c r="A19" s="4">
+        <v>44452</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18613</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C18)</f>
+        <v>1008</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="14">D19*E19</f>
+        <v>4999.68</v>
       </c>
       <c r="G19" s="11">
-        <f>SUM(G3:G18)</f>
-        <v>51494.679999999993</v>
+        <v>4999.68</v>
       </c>
       <c r="H19" s="11">
-        <f>SUM(H3:H18)</f>
-        <v>51500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G3:G19)</f>
+        <v>56494.359999999993</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H3:H19)</f>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
-        <f>SUM(H19,-G19)</f>
-        <v>5.3200000000069849</v>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>5.6400000000066939</v>
       </c>
     </row>
   </sheetData>
